--- a/acervo separado/Acervo_Equipamento_de_artistasartesaos.xlsx
+++ b/acervo separado/Acervo_Equipamento_de_artistasartesaos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EC56BD4-9CA4-4407-9E0E-0C0F9C17ACB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245E71E5-023E-4F6F-818C-A2A01ABB4A5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$4</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,15 +105,9 @@
     <t>s/a</t>
   </si>
   <si>
-    <t>Madeira</t>
-  </si>
-  <si>
     <t>RT ARM1</t>
   </si>
   <si>
-    <t>Metal/madeira</t>
-  </si>
-  <si>
     <t>Trabalho</t>
   </si>
   <si>
@@ -171,6 +172,12 @@
   </si>
   <si>
     <t>7 cm</t>
+  </si>
+  <si>
+    <t>mattec_154</t>
+  </si>
+  <si>
+    <t>mattec_193</t>
   </si>
 </sst>
 </file>
@@ -566,7 +573,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,13 +652,13 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
         <v>38</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -659,22 +666,22 @@
         <v>1548</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -695,13 +702,13 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
         <v>41</v>
-      </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -709,22 +716,22 @@
         <v>1522</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -733,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
@@ -745,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
         <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -759,22 +766,22 @@
         <v>1523</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -783,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -795,13 +802,13 @@
         <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
